--- a/Code/Results/Cases/Case_1_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.829419698157892</v>
+        <v>1.141508822445189</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08433051382945322</v>
+        <v>0.1861054361842562</v>
       </c>
       <c r="E2">
-        <v>0.1207984426622772</v>
+        <v>0.1740423477911719</v>
       </c>
       <c r="F2">
-        <v>0.8409875930667994</v>
+        <v>1.317766729300061</v>
       </c>
       <c r="G2">
-        <v>0.0007797000487784285</v>
+        <v>0.002434932427956787</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2547372709187696</v>
+        <v>0.8105788195493853</v>
       </c>
       <c r="J2">
-        <v>0.1931702804516959</v>
+        <v>0.2109904491734014</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.061392526401221</v>
+        <v>0.5103138085203796</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.226949071880938</v>
+        <v>1.431523902812856</v>
       </c>
       <c r="O2">
-        <v>2.627842580047627</v>
+        <v>3.278104424071699</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.599911252444599</v>
+        <v>1.074822203913925</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0836325482608693</v>
+        <v>0.1863123682828522</v>
       </c>
       <c r="E3">
-        <v>0.1163030317758533</v>
+        <v>0.1728898952792619</v>
       </c>
       <c r="F3">
-        <v>0.7792401001715774</v>
+        <v>1.313367131654047</v>
       </c>
       <c r="G3">
-        <v>0.000784589398111734</v>
+        <v>0.002438315577615514</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2746162979548448</v>
+        <v>0.8233234718030724</v>
       </c>
       <c r="J3">
-        <v>0.182575405349283</v>
+        <v>0.2078312979552095</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.924051641463933</v>
+        <v>0.4702835370184459</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.195432719132867</v>
+        <v>1.424807753880273</v>
       </c>
       <c r="O3">
-        <v>2.386201981197416</v>
+        <v>3.244091665026531</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.459283999916693</v>
+        <v>1.034072198655821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08323597963202189</v>
+        <v>0.1864608979753548</v>
       </c>
       <c r="E4">
-        <v>0.1135627272160438</v>
+        <v>0.172197003375393</v>
       </c>
       <c r="F4">
-        <v>0.7429508976018582</v>
+        <v>1.311466661671808</v>
       </c>
       <c r="G4">
-        <v>0.0007876940189106373</v>
+        <v>0.002440506441020734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.287614676458273</v>
+        <v>0.8316012188112829</v>
       </c>
       <c r="J4">
-        <v>0.1760836004051995</v>
+        <v>0.2059032326143893</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8399323584107492</v>
+        <v>0.4457670971699486</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.17710505095404</v>
+        <v>1.421200269464322</v>
       </c>
       <c r="O4">
-        <v>2.242616349816871</v>
+        <v>3.225330344706492</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.402035409049461</v>
+        <v>1.017516894567962</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08308210683112094</v>
+        <v>0.1865268445025379</v>
       </c>
       <c r="E5">
-        <v>0.1124508440094871</v>
+        <v>0.1719183987134691</v>
       </c>
       <c r="F5">
-        <v>0.7285448303635675</v>
+        <v>1.310893501922727</v>
       </c>
       <c r="G5">
-        <v>0.0007889854811541975</v>
+        <v>0.002441427888173472</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2931044428351992</v>
+        <v>0.8350881731822719</v>
       </c>
       <c r="J5">
-        <v>0.1734413121633267</v>
+        <v>0.2051205708363426</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.805693385193365</v>
+        <v>0.4357927657334528</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.169885958523196</v>
+        <v>1.419860627256938</v>
       </c>
       <c r="O5">
-        <v>2.185217755231065</v>
+        <v>3.218218228765721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.392532410893523</v>
+        <v>1.014770999758042</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08305701488190564</v>
+        <v>0.1865381227868887</v>
       </c>
       <c r="E6">
-        <v>0.1122665023207361</v>
+        <v>0.1718723649475162</v>
       </c>
       <c r="F6">
-        <v>0.7261750482831388</v>
+        <v>1.310810484271663</v>
       </c>
       <c r="G6">
-        <v>0.0007892015308806047</v>
+        <v>0.002441582626811096</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2940274761160815</v>
+        <v>0.835674044645768</v>
       </c>
       <c r="J6">
-        <v>0.1730027483568009</v>
+        <v>0.2049907972292502</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8000101260028032</v>
+        <v>0.4341375402279084</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.168702088841385</v>
+        <v>1.419646077118585</v>
       </c>
       <c r="O6">
-        <v>2.175751521240983</v>
+        <v>3.217069461766471</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.458511709325535</v>
+        <v>1.033848721075998</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08323387353037859</v>
+        <v>0.186461765382905</v>
       </c>
       <c r="E7">
-        <v>0.1135477127131814</v>
+        <v>0.1721932307427814</v>
       </c>
       <c r="F7">
-        <v>0.7427550990503562</v>
+        <v>1.311458116923902</v>
       </c>
       <c r="G7">
-        <v>0.0007877113288350077</v>
+        <v>0.002440518751888881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2876879409959807</v>
+        <v>0.8316477848082489</v>
       </c>
       <c r="J7">
-        <v>0.1760479529861669</v>
+        <v>0.2058926649106496</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8394704518362914</v>
+        <v>0.4456325129207244</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.177006691159519</v>
+        <v>1.421181673620353</v>
       </c>
       <c r="O7">
-        <v>2.241837856856137</v>
+        <v>3.225232269665355</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.750215054353873</v>
+        <v>1.118475448844549</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08408301929437201</v>
+        <v>0.1861723416650634</v>
       </c>
       <c r="E8">
-        <v>0.1192441711726282</v>
+        <v>0.1736419588247209</v>
       </c>
       <c r="F8">
-        <v>0.819343709353376</v>
+        <v>1.31608345802168</v>
       </c>
       <c r="G8">
-        <v>0.0007813649351341121</v>
+        <v>0.002436075414241965</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2614230791772281</v>
+        <v>0.8148792204003774</v>
       </c>
       <c r="J8">
-        <v>0.1895142209514162</v>
+        <v>0.2098988155353183</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.013986498762392</v>
+        <v>0.4964988148595353</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.215864966798264</v>
+        <v>1.42910138969367</v>
       </c>
       <c r="O8">
-        <v>2.543477115584267</v>
+        <v>3.265935956914547</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.325328060810818</v>
+        <v>1.285929011791382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08601794706225974</v>
+        <v>0.1857743057265608</v>
       </c>
       <c r="E9">
-        <v>0.1305835184743493</v>
+        <v>0.1765975237177813</v>
       </c>
       <c r="F9">
-        <v>0.983686114652599</v>
+        <v>1.331515316039443</v>
       </c>
       <c r="G9">
-        <v>0.0007697083368205092</v>
+        <v>0.002428259374766562</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2165108412834469</v>
+        <v>0.785589177702156</v>
       </c>
       <c r="J9">
-        <v>0.2160419684665982</v>
+        <v>0.2178431354123092</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.358474041048396</v>
+        <v>0.596718415990722</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.300566035000003</v>
+        <v>1.448703326550188</v>
       </c>
       <c r="O9">
-        <v>3.177236113620921</v>
+        <v>3.362629007510179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.750934839401566</v>
+        <v>1.409813326924734</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0876295734769954</v>
+        <v>0.1855841105257809</v>
       </c>
       <c r="E10">
-        <v>0.1390358976586938</v>
+        <v>0.178836179211519</v>
       </c>
       <c r="F10">
-        <v>1.114946685120572</v>
+        <v>1.346744252917347</v>
       </c>
       <c r="G10">
-        <v>0.000761587900323396</v>
+        <v>0.002423058378795317</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1879757218980131</v>
+        <v>0.7662634171690179</v>
       </c>
       <c r="J10">
-        <v>0.2356297223908541</v>
+        <v>0.2237284554503773</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.613886808347502</v>
+        <v>0.6706127810084297</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.368546281314565</v>
+        <v>1.465556899515519</v>
       </c>
       <c r="O10">
-        <v>3.675047857159313</v>
+        <v>3.444011823984511</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.945512277863884</v>
+        <v>1.466345784256248</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08841074908542979</v>
+        <v>0.1855195576819</v>
       </c>
       <c r="E11">
-        <v>0.1429125358992174</v>
+        <v>0.1798686441782493</v>
       </c>
       <c r="F11">
-        <v>1.17739975961932</v>
+        <v>1.354520241602884</v>
       </c>
       <c r="G11">
-        <v>0.0007579811869489342</v>
+        <v>0.002420808692244438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1760675135916525</v>
+        <v>0.7579486260310198</v>
       </c>
       <c r="J11">
-        <v>0.2445686974772414</v>
+        <v>0.2264153370622992</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.730814962130154</v>
+        <v>0.7042817218397488</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.400856629885183</v>
+        <v>1.47375044232075</v>
       </c>
       <c r="O11">
-        <v>3.91006067456442</v>
+        <v>3.483293628065496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.019358291651656</v>
+        <v>1.487777335823182</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08871412246675803</v>
+        <v>0.1854982529648481</v>
       </c>
       <c r="E12">
-        <v>0.1443855483429139</v>
+        <v>0.1802615868294879</v>
       </c>
       <c r="F12">
-        <v>1.201484517695377</v>
+        <v>1.35758696293972</v>
       </c>
       <c r="G12">
-        <v>0.0007566271873037253</v>
+        <v>0.002419973424324779</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1717218045218587</v>
+        <v>0.7548686449254962</v>
       </c>
       <c r="J12">
-        <v>0.2479583661014999</v>
+        <v>0.2274340711109701</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.775219661926116</v>
+        <v>0.7170384873236912</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.413302984401241</v>
+        <v>1.476928324018786</v>
       </c>
       <c r="O12">
-        <v>4.000425062688237</v>
+        <v>3.49849443538875</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.00344653119231</v>
+        <v>1.483160626892641</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08864843804375866</v>
+        <v>0.1855027019627649</v>
       </c>
       <c r="E13">
-        <v>0.1440680775029612</v>
+        <v>0.1801768728383379</v>
       </c>
       <c r="F13">
-        <v>1.196277395651691</v>
+        <v>1.356921055889231</v>
       </c>
       <c r="G13">
-        <v>0.0007569182842367299</v>
+        <v>0.002420152575457021</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1726502944127706</v>
+        <v>0.7555289188900023</v>
       </c>
       <c r="J13">
-        <v>0.2472281220654082</v>
+        <v>0.2272146138065025</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.765650345431794</v>
+        <v>0.714290786391814</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.410612852048459</v>
+        <v>1.476240576567662</v>
       </c>
       <c r="O13">
-        <v>3.980900185862311</v>
+        <v>3.495206176974136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.951584202545973</v>
+        <v>1.468108499720302</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08843555224720134</v>
+        <v>0.1855177421068284</v>
       </c>
       <c r="E14">
-        <v>0.1430336180858944</v>
+        <v>0.1799009326303924</v>
       </c>
       <c r="F14">
-        <v>1.179372260721792</v>
+        <v>1.354770094263273</v>
       </c>
       <c r="G14">
-        <v>0.0007578695609821162</v>
+        <v>0.002420739641326528</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1757066529873494</v>
+        <v>0.7576938576198504</v>
       </c>
       <c r="J14">
-        <v>0.2448474701851566</v>
+        <v>0.22649912411363</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.734465504972349</v>
+        <v>0.7053310909584241</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.401876296926943</v>
+        <v>1.474010385459835</v>
       </c>
       <c r="O14">
-        <v>3.917466705050401</v>
+        <v>3.484537677847868</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.919839125767282</v>
+        <v>1.458891710193257</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08830615883465498</v>
+        <v>0.1855273629978313</v>
       </c>
       <c r="E15">
-        <v>0.1424006499337906</v>
+        <v>0.1797321662699503</v>
       </c>
       <c r="F15">
-        <v>1.169075313041873</v>
+        <v>1.353468476448285</v>
       </c>
       <c r="G15">
-        <v>0.0007584537563441926</v>
+        <v>0.002421101400811689</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1776003664349961</v>
+        <v>0.7590288887942158</v>
       </c>
       <c r="J15">
-        <v>0.2433898798290457</v>
+        <v>0.2260610280977104</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.715381001024184</v>
+        <v>0.6998439185535119</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.3965527649884</v>
+        <v>1.472654100507171</v>
       </c>
       <c r="O15">
-        <v>3.87879464708044</v>
+        <v>3.478045340045242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.73824026722059</v>
+        <v>1.406122228828508</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08757954213352193</v>
+        <v>0.1855887696358529</v>
       </c>
       <c r="E16">
-        <v>0.1387832246412515</v>
+        <v>0.1787689839669326</v>
       </c>
       <c r="F16">
-        <v>1.110923822869836</v>
+        <v>1.346253155348421</v>
       </c>
       <c r="G16">
-        <v>0.0007618252999861733</v>
+        <v>0.002423207733590949</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1887763267479556</v>
+        <v>0.766816408540155</v>
       </c>
       <c r="J16">
-        <v>0.235046159015603</v>
+        <v>0.223553045325751</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.60626184513103</v>
+        <v>0.6684134637324632</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.366463604789544</v>
+        <v>1.465031982059187</v>
       </c>
       <c r="O16">
-        <v>3.659873072311996</v>
+        <v>3.441490201483759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.627099811487767</v>
+        <v>1.373794093927017</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08714652613045715</v>
+        <v>0.1856320536123697</v>
       </c>
       <c r="E17">
-        <v>0.1365724575103755</v>
+        <v>0.1781816719272236</v>
       </c>
       <c r="F17">
-        <v>1.075980102746698</v>
+        <v>1.342044153483087</v>
       </c>
       <c r="G17">
-        <v>0.0007639154654399753</v>
+        <v>0.002424529623697153</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1959136480464334</v>
+        <v>0.771715949412604</v>
       </c>
       <c r="J17">
-        <v>0.2299352204698053</v>
+        <v>0.2220168625056189</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.539523997472912</v>
+        <v>0.64914523560509</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.34836799857483</v>
+        <v>1.46049055929069</v>
       </c>
       <c r="O17">
-        <v>3.527859027692386</v>
+        <v>3.419644169009132</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.563264156289677</v>
+        <v>1.355216541845721</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08690194445206956</v>
+        <v>0.1856590182563771</v>
       </c>
       <c r="E18">
-        <v>0.1353038256778589</v>
+        <v>0.1778451950382447</v>
       </c>
       <c r="F18">
-        <v>1.056136857112364</v>
+        <v>1.339703081461437</v>
       </c>
       <c r="G18">
-        <v>0.000765125941236635</v>
+        <v>0.002425300888680166</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.200119200643103</v>
+        <v>0.7745788880657543</v>
       </c>
       <c r="J18">
-        <v>0.2269981769518949</v>
+        <v>0.221134202999032</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.501206452738984</v>
+        <v>0.6380677870949967</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.338089565939967</v>
+        <v>1.457928069296912</v>
       </c>
       <c r="O18">
-        <v>3.452724322958545</v>
+        <v>3.407291627888128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.541665134240986</v>
+        <v>1.348929422007188</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08681988392310558</v>
+        <v>0.1856685039262587</v>
       </c>
       <c r="E19">
-        <v>0.1348747811068662</v>
+        <v>0.1777314997736639</v>
       </c>
       <c r="F19">
-        <v>1.049460958261136</v>
+        <v>1.338924141997609</v>
       </c>
       <c r="G19">
-        <v>0.0007655372301312251</v>
+        <v>0.002425563908871449</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2015600868018499</v>
+        <v>0.7755559298020778</v>
       </c>
       <c r="J19">
-        <v>0.2260041803849262</v>
+        <v>0.2208355097800876</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.488243935783316</v>
+        <v>0.6343180552484569</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.334631389923388</v>
+        <v>1.457068993776431</v>
       </c>
       <c r="O19">
-        <v>3.42741769001276</v>
+        <v>3.403145785974743</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.63892147812777</v>
+        <v>1.377233757800468</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08719215356508059</v>
+        <v>0.1856272319794634</v>
       </c>
       <c r="E20">
-        <v>0.1368074897031732</v>
+        <v>0.1782440551048445</v>
       </c>
       <c r="F20">
-        <v>1.079673196966908</v>
+        <v>1.342483945302632</v>
       </c>
       <c r="G20">
-        <v>0.0007636921135081293</v>
+        <v>0.002424387773787359</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1951434153313638</v>
+        <v>0.7711897420331137</v>
       </c>
       <c r="J20">
-        <v>0.2304790121327045</v>
+        <v>0.2221802981986016</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.546621146115314</v>
+        <v>0.6511958458690117</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.350280801885972</v>
+        <v>1.46096887065238</v>
       </c>
       <c r="O20">
-        <v>3.541828759582927</v>
+        <v>3.421947696455618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.966812773446804</v>
+        <v>1.472529036593528</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08849787117316055</v>
+        <v>0.1855132393822139</v>
       </c>
       <c r="E21">
-        <v>0.1433373237144302</v>
+        <v>0.1799819299186183</v>
       </c>
       <c r="F21">
-        <v>1.184325557324939</v>
+        <v>1.355398568304707</v>
       </c>
       <c r="G21">
-        <v>0.0007575898345118939</v>
+        <v>0.002420566754868619</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1748044060730152</v>
+        <v>0.7570560985709882</v>
       </c>
       <c r="J21">
-        <v>0.2455465933549732</v>
+        <v>0.2267092472040062</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.74362164385019</v>
+        <v>0.7079625844321811</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.404436606590508</v>
+        <v>1.474663411308626</v>
       </c>
       <c r="O21">
-        <v>3.936060298510085</v>
+        <v>3.487662432039599</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.182076260181816</v>
+        <v>1.534948842073391</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08939566333704008</v>
+        <v>0.1854570325560552</v>
       </c>
       <c r="E22">
-        <v>0.1476344449557025</v>
+        <v>0.1811291919901095</v>
       </c>
       <c r="F22">
-        <v>1.255279608862082</v>
+        <v>1.364550914705305</v>
       </c>
       <c r="G22">
-        <v>0.0007536699296325995</v>
+        <v>0.002418166448401963</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1624705280693064</v>
+        <v>0.7482191435654073</v>
       </c>
       <c r="J22">
-        <v>0.2554217117902127</v>
+        <v>0.2296765292034308</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.873121222462288</v>
+        <v>0.7451038056167363</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.44106724702722</v>
+        <v>1.48405143836662</v>
       </c>
       <c r="O22">
-        <v>4.201773109087526</v>
+        <v>3.532509173684673</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.0670888137048</v>
+        <v>1.501622006886464</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08891218996633654</v>
+        <v>0.1854853635028739</v>
       </c>
       <c r="E23">
-        <v>0.1453381164991683</v>
+        <v>0.1805158462773022</v>
       </c>
       <c r="F23">
-        <v>1.217161695883533</v>
+        <v>1.359600949607838</v>
       </c>
       <c r="G23">
-        <v>0.0007557560790765744</v>
+        <v>0.002419438692557518</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1689623323051865</v>
+        <v>0.7528989361254492</v>
       </c>
       <c r="J23">
-        <v>0.2501484306266306</v>
+        <v>0.2280921995159915</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.803929212340904</v>
+        <v>0.7252773275563129</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.421399500417039</v>
+        <v>1.479000998859732</v>
       </c>
       <c r="O23">
-        <v>4.059170409173021</v>
+        <v>3.5083997236747</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.633576716123116</v>
+        <v>1.375678659716925</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08717151185403083</v>
+        <v>0.1856294053597409</v>
       </c>
       <c r="E24">
-        <v>0.1367012243085384</v>
+        <v>0.1782158480019866</v>
       </c>
       <c r="F24">
-        <v>1.078002784747582</v>
+        <v>1.342284870160512</v>
       </c>
       <c r="G24">
-        <v>0.0007637930634021269</v>
+        <v>0.00242445186897287</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1954913198822847</v>
+        <v>0.7714274967129722</v>
       </c>
       <c r="J24">
-        <v>0.2302331599059642</v>
+        <v>0.2221064073176606</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.543412368072637</v>
+        <v>0.6502687645655101</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.349415635134662</v>
+        <v>1.460752475169869</v>
       </c>
       <c r="O24">
-        <v>3.535510680990285</v>
+        <v>3.420905626833303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.169297173249959</v>
+        <v>1.240473806810883</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08546317691034488</v>
+        <v>0.1858639511096705</v>
       </c>
       <c r="E25">
-        <v>0.1274961246408139</v>
+        <v>0.1757859714884766</v>
       </c>
       <c r="F25">
-        <v>0.9375249785576756</v>
+        <v>1.326658199459771</v>
       </c>
       <c r="G25">
-        <v>0.0007727810127583501</v>
+        <v>0.002430278335057542</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2279108452874263</v>
+        <v>0.7931279190617433</v>
       </c>
       <c r="J25">
-        <v>0.2088503262884842</v>
+        <v>0.2156850733545568</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.264946627397364</v>
+        <v>0.5695584373445968</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.276685746477284</v>
+        <v>1.442967745587509</v>
       </c>
       <c r="O25">
-        <v>3.000629081855209</v>
+        <v>3.334658785307766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.141508822445189</v>
+        <v>1.829419698157977</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1861054361842562</v>
+        <v>0.08433051382952073</v>
       </c>
       <c r="E2">
-        <v>0.1740423477911719</v>
+        <v>0.1207984426622737</v>
       </c>
       <c r="F2">
-        <v>1.317766729300061</v>
+        <v>0.8409875930667852</v>
       </c>
       <c r="G2">
-        <v>0.002434932427956787</v>
+        <v>0.0007797000487789267</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8105788195493853</v>
+        <v>0.2547372709187652</v>
       </c>
       <c r="J2">
-        <v>0.2109904491734014</v>
+        <v>0.1931702804518096</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5103138085203796</v>
+        <v>1.061392526401079</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.431523902812856</v>
+        <v>1.226949071880995</v>
       </c>
       <c r="O2">
-        <v>3.278104424071699</v>
+        <v>2.627842580047627</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.074822203913925</v>
+        <v>1.599911252444599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1863123682828522</v>
+        <v>0.08363254826092614</v>
       </c>
       <c r="E3">
-        <v>0.1728898952792619</v>
+        <v>0.1163030317758675</v>
       </c>
       <c r="F3">
-        <v>1.313367131654047</v>
+        <v>0.7792401001715774</v>
       </c>
       <c r="G3">
-        <v>0.002438315577615514</v>
+        <v>0.000784589398081939</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8233234718030724</v>
+        <v>0.2746162979548483</v>
       </c>
       <c r="J3">
-        <v>0.2078312979552095</v>
+        <v>0.1825754053493043</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4702835370184459</v>
+        <v>0.924051641463933</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.424807753880273</v>
+        <v>1.195432719132924</v>
       </c>
       <c r="O3">
-        <v>3.244091665026531</v>
+        <v>2.386201981197416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.034072198655821</v>
+        <v>1.459283999916636</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1864608979753548</v>
+        <v>0.08323597963207874</v>
       </c>
       <c r="E4">
-        <v>0.172197003375393</v>
+        <v>0.1135627272160331</v>
       </c>
       <c r="F4">
-        <v>1.311466661671808</v>
+        <v>0.7429508976018511</v>
       </c>
       <c r="G4">
-        <v>0.002440506441020734</v>
+        <v>0.0007876940188822901</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8316012188112829</v>
+        <v>0.2876146764582685</v>
       </c>
       <c r="J4">
-        <v>0.2059032326143893</v>
+        <v>0.1760836004050859</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4457670971699486</v>
+        <v>0.839932358410806</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421200269464322</v>
+        <v>1.17710505095404</v>
       </c>
       <c r="O4">
-        <v>3.225330344706492</v>
+        <v>2.242616349816785</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.017516894567962</v>
+        <v>1.402035409049404</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1865268445025379</v>
+        <v>0.08308210683105344</v>
       </c>
       <c r="E5">
-        <v>0.1719183987134691</v>
+        <v>0.1124508440095013</v>
       </c>
       <c r="F5">
-        <v>1.310893501922727</v>
+        <v>0.7285448303635391</v>
       </c>
       <c r="G5">
-        <v>0.002441427888173472</v>
+        <v>0.0007889854811250485</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8350881731822719</v>
+        <v>0.2931044428351903</v>
       </c>
       <c r="J5">
-        <v>0.2051205708363426</v>
+        <v>0.173441312163348</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4357927657334528</v>
+        <v>0.805693385193365</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.419860627256938</v>
+        <v>1.169885958523167</v>
       </c>
       <c r="O5">
-        <v>3.218218228765721</v>
+        <v>2.185217755231093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.014770999758042</v>
+        <v>1.392532410893637</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1865381227868887</v>
+        <v>0.08305701488184525</v>
       </c>
       <c r="E6">
-        <v>0.1718723649475162</v>
+        <v>0.1122665023207183</v>
       </c>
       <c r="F6">
-        <v>1.310810484271663</v>
+        <v>0.7261750482831459</v>
       </c>
       <c r="G6">
-        <v>0.002441582626811096</v>
+        <v>0.0007892015308801351</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.835674044645768</v>
+        <v>0.2940274761160779</v>
       </c>
       <c r="J6">
-        <v>0.2049907972292502</v>
+        <v>0.1730027483568293</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4341375402279084</v>
+        <v>0.8000101260027748</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.419646077118585</v>
+        <v>1.168702088841371</v>
       </c>
       <c r="O6">
-        <v>3.217069461766471</v>
+        <v>2.175751521240954</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.033848721075998</v>
+        <v>1.458511709325506</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.186461765382905</v>
+        <v>0.08323387353025424</v>
       </c>
       <c r="E7">
-        <v>0.1721932307427814</v>
+        <v>0.1135477127132045</v>
       </c>
       <c r="F7">
-        <v>1.311458116923902</v>
+        <v>0.7427550990503562</v>
       </c>
       <c r="G7">
-        <v>0.002440518751888881</v>
+        <v>0.0007877113288341786</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8316477848082489</v>
+        <v>0.2876879409959763</v>
       </c>
       <c r="J7">
-        <v>0.2058926649106496</v>
+        <v>0.1760479529862025</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4456325129207244</v>
+        <v>0.8394704518364051</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.421181673620353</v>
+        <v>1.177006691159562</v>
       </c>
       <c r="O7">
-        <v>3.225232269665355</v>
+        <v>2.241837856856193</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.118475448844549</v>
+        <v>1.750215054353873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1861723416650634</v>
+        <v>0.08408301929431161</v>
       </c>
       <c r="E8">
-        <v>0.1736419588247209</v>
+        <v>0.1192441711726069</v>
       </c>
       <c r="F8">
-        <v>1.31608345802168</v>
+        <v>0.819343709353376</v>
       </c>
       <c r="G8">
-        <v>0.002436075414241965</v>
+        <v>0.0007813649351344395</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8148792204003774</v>
+        <v>0.2614230791772316</v>
       </c>
       <c r="J8">
-        <v>0.2098988155353183</v>
+        <v>0.1895142209513949</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4964988148595353</v>
+        <v>1.013986498762335</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.42910138969367</v>
+        <v>1.215864966798222</v>
       </c>
       <c r="O8">
-        <v>3.265935956914547</v>
+        <v>2.543477115584238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.285929011791382</v>
+        <v>2.325328060810875</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1857743057265608</v>
+        <v>0.08601794706213894</v>
       </c>
       <c r="E9">
-        <v>0.1765975237177813</v>
+        <v>0.13058351847436</v>
       </c>
       <c r="F9">
-        <v>1.331515316039443</v>
+        <v>0.9836861146525706</v>
       </c>
       <c r="G9">
-        <v>0.002428259374766562</v>
+        <v>0.0007697083368907744</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.785589177702156</v>
+        <v>0.216510841283446</v>
       </c>
       <c r="J9">
-        <v>0.2178431354123092</v>
+        <v>0.216041968466655</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.596718415990722</v>
+        <v>1.358474041048339</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.448703326550188</v>
+        <v>1.300566035000088</v>
       </c>
       <c r="O9">
-        <v>3.362629007510179</v>
+        <v>3.177236113620921</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.409813326924734</v>
+        <v>2.750934839401623</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1855841105257809</v>
+        <v>0.0876295734769883</v>
       </c>
       <c r="E10">
-        <v>0.178836179211519</v>
+        <v>0.1390358976586761</v>
       </c>
       <c r="F10">
-        <v>1.346744252917347</v>
+        <v>1.114946685120557</v>
       </c>
       <c r="G10">
-        <v>0.002423058378795317</v>
+        <v>0.0007615879002943047</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7662634171690179</v>
+        <v>0.1879757218980114</v>
       </c>
       <c r="J10">
-        <v>0.2237284554503773</v>
+        <v>0.2356297223907617</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6706127810084297</v>
+        <v>1.613886808347445</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.465556899515519</v>
+        <v>1.368546281314607</v>
       </c>
       <c r="O10">
-        <v>3.444011823984511</v>
+        <v>3.675047857159257</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.466345784256248</v>
+        <v>2.945512277863827</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1855195576819</v>
+        <v>0.08841074908561097</v>
       </c>
       <c r="E11">
-        <v>0.1798686441782493</v>
+        <v>0.1429125358992245</v>
       </c>
       <c r="F11">
-        <v>1.354520241602884</v>
+        <v>1.17739975961932</v>
       </c>
       <c r="G11">
-        <v>0.002420808692244438</v>
+        <v>0.0007579811868994388</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7579486260310198</v>
+        <v>0.1760675135916578</v>
       </c>
       <c r="J11">
-        <v>0.2264153370622992</v>
+        <v>0.2445686974771988</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7042817218397488</v>
+        <v>1.730814962130154</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.47375044232075</v>
+        <v>1.400856629885112</v>
       </c>
       <c r="O11">
-        <v>3.483293628065496</v>
+        <v>3.910060674564363</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.487777335823182</v>
+        <v>3.019358291651599</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1854982529648481</v>
+        <v>0.08871412246686461</v>
       </c>
       <c r="E12">
-        <v>0.1802615868294879</v>
+        <v>0.144385548342882</v>
       </c>
       <c r="F12">
-        <v>1.35758696293972</v>
+        <v>1.201484517695377</v>
       </c>
       <c r="G12">
-        <v>0.002419973424324779</v>
+        <v>0.0007566271873034777</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7548686449254962</v>
+        <v>0.1717218045218551</v>
       </c>
       <c r="J12">
-        <v>0.2274340711109701</v>
+        <v>0.2479583661014999</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7170384873236912</v>
+        <v>1.775219661926116</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.476928324018786</v>
+        <v>1.413302984401213</v>
       </c>
       <c r="O12">
-        <v>3.49849443538875</v>
+        <v>4.000425062688294</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.483160626892641</v>
+        <v>3.003446531192196</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1855027019627649</v>
+        <v>0.08864843804382971</v>
       </c>
       <c r="E13">
-        <v>0.1801768728383379</v>
+        <v>0.1440680775029577</v>
       </c>
       <c r="F13">
-        <v>1.356921055889231</v>
+        <v>1.196277395651691</v>
       </c>
       <c r="G13">
-        <v>0.002420152575457021</v>
+        <v>0.0007569182842366108</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7555289188900023</v>
+        <v>0.1726502944127564</v>
       </c>
       <c r="J13">
-        <v>0.2272146138065025</v>
+        <v>0.2472281220654011</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.714290786391814</v>
+        <v>1.765650345431681</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.476240576567662</v>
+        <v>1.410612852048459</v>
       </c>
       <c r="O13">
-        <v>3.495206176974136</v>
+        <v>3.980900185862254</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.468108499720302</v>
+        <v>2.951584202545746</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1855177421068284</v>
+        <v>0.08843555224711608</v>
       </c>
       <c r="E14">
-        <v>0.1799009326303924</v>
+        <v>0.143033618085898</v>
       </c>
       <c r="F14">
-        <v>1.354770094263273</v>
+        <v>1.179372260721806</v>
       </c>
       <c r="G14">
-        <v>0.002420739641326528</v>
+        <v>0.0007578695610596172</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7576938576198504</v>
+        <v>0.1757066529873494</v>
       </c>
       <c r="J14">
-        <v>0.22649912411363</v>
+        <v>0.2448474701852561</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7053310909584241</v>
+        <v>1.734465504972349</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.474010385459835</v>
+        <v>1.401876296926943</v>
       </c>
       <c r="O14">
-        <v>3.484537677847868</v>
+        <v>3.917466705050401</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.458891710193257</v>
+        <v>2.919839125767453</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1855273629978313</v>
+        <v>0.08830615883468695</v>
       </c>
       <c r="E15">
-        <v>0.1797321662699503</v>
+        <v>0.1424006499337835</v>
       </c>
       <c r="F15">
-        <v>1.353468476448285</v>
+        <v>1.169075313041873</v>
       </c>
       <c r="G15">
-        <v>0.002421101400811689</v>
+        <v>0.0007584537563445902</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7590288887942158</v>
+        <v>0.1776003664349979</v>
       </c>
       <c r="J15">
-        <v>0.2260610280977104</v>
+        <v>0.2433898798290173</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6998439185535119</v>
+        <v>1.715381001024156</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.472654100507171</v>
+        <v>1.396552764988414</v>
       </c>
       <c r="O15">
-        <v>3.478045340045242</v>
+        <v>3.878794647080497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.406122228828508</v>
+        <v>2.738240267220988</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1855887696358529</v>
+        <v>0.08757954213344021</v>
       </c>
       <c r="E16">
-        <v>0.1787689839669326</v>
+        <v>0.1387832246411982</v>
       </c>
       <c r="F16">
-        <v>1.346253155348421</v>
+        <v>1.110923822869836</v>
       </c>
       <c r="G16">
-        <v>0.002423207733590949</v>
+        <v>0.0007618252999850321</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.766816408540155</v>
+        <v>0.1887763267479574</v>
       </c>
       <c r="J16">
-        <v>0.223553045325751</v>
+        <v>0.2350461590155959</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6684134637324632</v>
+        <v>1.60626184513103</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.465031982059187</v>
+        <v>1.366463604789459</v>
       </c>
       <c r="O16">
-        <v>3.441490201483759</v>
+        <v>3.659873072311939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.373794093927017</v>
+        <v>2.627099811488051</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1856320536123697</v>
+        <v>0.08714652613045359</v>
       </c>
       <c r="E17">
-        <v>0.1781816719272236</v>
+        <v>0.1365724575103719</v>
       </c>
       <c r="F17">
-        <v>1.342044153483087</v>
+        <v>1.075980102746698</v>
       </c>
       <c r="G17">
-        <v>0.002424529623697153</v>
+        <v>0.0007639154654773898</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.771715949412604</v>
+        <v>0.1959136480464334</v>
       </c>
       <c r="J17">
-        <v>0.2220168625056189</v>
+        <v>0.2299352204698479</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.64914523560509</v>
+        <v>1.539523997472855</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.46049055929069</v>
+        <v>1.348367998574744</v>
       </c>
       <c r="O17">
-        <v>3.419644169009132</v>
+        <v>3.527859027692386</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.355216541845721</v>
+        <v>2.563264156289904</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1856590182563771</v>
+        <v>0.08690194445206956</v>
       </c>
       <c r="E18">
-        <v>0.1778451950382447</v>
+        <v>0.1353038256778412</v>
       </c>
       <c r="F18">
-        <v>1.339703081461437</v>
+        <v>1.056136857112364</v>
       </c>
       <c r="G18">
-        <v>0.002425300888680166</v>
+        <v>0.0007651259412650178</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7745788880657543</v>
+        <v>0.2001192006431012</v>
       </c>
       <c r="J18">
-        <v>0.221134202999032</v>
+        <v>0.2269981769518239</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6380677870949967</v>
+        <v>1.501206452739012</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.457928069296912</v>
+        <v>1.338089565939939</v>
       </c>
       <c r="O18">
-        <v>3.407291627888128</v>
+        <v>3.452724322958545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.348929422007188</v>
+        <v>2.5416651342411</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1856685039262587</v>
+        <v>0.08681988392321927</v>
       </c>
       <c r="E19">
-        <v>0.1777314997736639</v>
+        <v>0.1348747811068662</v>
       </c>
       <c r="F19">
-        <v>1.338924141997609</v>
+        <v>1.049460958261122</v>
       </c>
       <c r="G19">
-        <v>0.002425563908871449</v>
+        <v>0.0007655372301599295</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7755559298020778</v>
+        <v>0.2015600868018463</v>
       </c>
       <c r="J19">
-        <v>0.2208355097800876</v>
+        <v>0.2260041803848694</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6343180552484569</v>
+        <v>1.48824393578343</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.457068993776431</v>
+        <v>1.334631389923388</v>
       </c>
       <c r="O19">
-        <v>3.403145785974743</v>
+        <v>3.42741769001276</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.377233757800468</v>
+        <v>2.638921478127941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1856272319794634</v>
+        <v>0.08719215356504151</v>
       </c>
       <c r="E20">
-        <v>0.1782440551048445</v>
+        <v>0.136807489703159</v>
       </c>
       <c r="F20">
-        <v>1.342483945302632</v>
+        <v>1.079673196966894</v>
       </c>
       <c r="G20">
-        <v>0.002424387773787359</v>
+        <v>0.0007636921134427852</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7711897420331137</v>
+        <v>0.1951434153313656</v>
       </c>
       <c r="J20">
-        <v>0.2221802981986016</v>
+        <v>0.2304790121327116</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6511958458690117</v>
+        <v>1.546621146115314</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.46096887065238</v>
+        <v>1.350280801885987</v>
       </c>
       <c r="O20">
-        <v>3.421947696455618</v>
+        <v>3.541828759582984</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.472529036593528</v>
+        <v>2.966812773446748</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1855132393822139</v>
+        <v>0.0884978711732316</v>
       </c>
       <c r="E21">
-        <v>0.1799819299186183</v>
+        <v>0.1433373237144089</v>
       </c>
       <c r="F21">
-        <v>1.355398568304707</v>
+        <v>1.184325557324939</v>
       </c>
       <c r="G21">
-        <v>0.002420566754868619</v>
+        <v>0.0007575898345895772</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7570560985709882</v>
+        <v>0.1748044060730116</v>
       </c>
       <c r="J21">
-        <v>0.2267092472040062</v>
+        <v>0.2455465933550016</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7079625844321811</v>
+        <v>1.743621643850275</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.474663411308626</v>
+        <v>1.404436606590579</v>
       </c>
       <c r="O21">
-        <v>3.487662432039599</v>
+        <v>3.936060298510142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.534948842073391</v>
+        <v>3.182076260181987</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1854570325560552</v>
+        <v>0.0893956633370685</v>
       </c>
       <c r="E22">
-        <v>0.1811291919901095</v>
+        <v>0.1476344449557025</v>
       </c>
       <c r="F22">
-        <v>1.364550914705305</v>
+        <v>1.255279608862068</v>
       </c>
       <c r="G22">
-        <v>0.002418166448401963</v>
+        <v>0.0007536699296206266</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7482191435654073</v>
+        <v>0.1624705280693064</v>
       </c>
       <c r="J22">
-        <v>0.2296765292034308</v>
+        <v>0.2554217117902482</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7451038056167363</v>
+        <v>1.873121222462288</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.48405143836662</v>
+        <v>1.441067247027291</v>
       </c>
       <c r="O22">
-        <v>3.532509173684673</v>
+        <v>4.201773109087526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.501622006886464</v>
+        <v>3.0670888137048</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1854853635028739</v>
+        <v>0.08891218996630457</v>
       </c>
       <c r="E23">
-        <v>0.1805158462773022</v>
+        <v>0.1453381164991541</v>
       </c>
       <c r="F23">
-        <v>1.359600949607838</v>
+        <v>1.217161695883519</v>
       </c>
       <c r="G23">
-        <v>0.002419438692557518</v>
+        <v>0.0007557560790082766</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7528989361254492</v>
+        <v>0.1689623323051705</v>
       </c>
       <c r="J23">
-        <v>0.2280921995159915</v>
+        <v>0.2501484306266804</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7252773275563129</v>
+        <v>1.803929212340961</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.479000998859732</v>
+        <v>1.421399500417095</v>
       </c>
       <c r="O23">
-        <v>3.5083997236747</v>
+        <v>4.059170409172964</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.375678659716925</v>
+        <v>2.633576716123116</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1856294053597409</v>
+        <v>0.08717151185402372</v>
       </c>
       <c r="E24">
-        <v>0.1782158480019866</v>
+        <v>0.1367012243085206</v>
       </c>
       <c r="F24">
-        <v>1.342284870160512</v>
+        <v>1.078002784747582</v>
       </c>
       <c r="G24">
-        <v>0.00242445186897287</v>
+        <v>0.0007637930633735942</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7714274967129722</v>
+        <v>0.195491319882283</v>
       </c>
       <c r="J24">
-        <v>0.2221064073176606</v>
+        <v>0.2302331599059286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6502687645655101</v>
+        <v>1.543412368072552</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.460752475169869</v>
+        <v>1.349415635134591</v>
       </c>
       <c r="O24">
-        <v>3.420905626833303</v>
+        <v>3.535510680990228</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.240473806810883</v>
+        <v>2.169297173249845</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1858639511096705</v>
+        <v>0.08546317691034488</v>
       </c>
       <c r="E25">
-        <v>0.1757859714884766</v>
+        <v>0.1274961246408175</v>
       </c>
       <c r="F25">
-        <v>1.326658199459771</v>
+        <v>0.9375249785576898</v>
       </c>
       <c r="G25">
-        <v>0.002430278335057542</v>
+        <v>0.0007727810127583873</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7931279190617433</v>
+        <v>0.227910845287445</v>
       </c>
       <c r="J25">
-        <v>0.2156850733545568</v>
+        <v>0.2088503262886334</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5695584373445968</v>
+        <v>1.264946627397478</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.442967745587509</v>
+        <v>1.276685746477341</v>
       </c>
       <c r="O25">
-        <v>3.334658785307766</v>
+        <v>3.00062908185518</v>
       </c>
     </row>
   </sheetData>
